--- a/Projeto_1_invest.xlsx
+++ b/Projeto_1_invest.xlsx
@@ -8,17 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Documentos\Estudo excel dio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8878C5-CC21-4358-941D-272F85C1E544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58180F34-0F94-4FC7-B0D6-D507842EF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="340" xr2:uid="{11453B9E-8785-4E97-9353-9687E71305E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="14" xr2:uid="{11453B9E-8785-4E97-9353-9687E71305E5}"/>
   </bookViews>
   <sheets>
     <sheet name="INVEST" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">INVEST!$B$36:$B$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">INVEST!$C$36:$C$41</definedName>
     <definedName name="aporte">INVEST!$D$17</definedName>
     <definedName name="patrimonio">INVEST!$D$20</definedName>
     <definedName name="qtd_anos">INVEST!$D$18</definedName>
@@ -154,7 +152,7 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -760,7 +758,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -768,9 +766,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,8 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
@@ -799,52 +793,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="8" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="10" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
@@ -871,24 +829,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="3" applyFill="1"/>
-    <xf numFmtId="167" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -896,12 +851,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="10" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -917,9 +866,57 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2793,51 +2790,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818AFB9C-9353-40AF-9E99-AD103957BDDD}">
-  <dimension ref="A10:G67"/>
+  <dimension ref="A10:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.08984375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="49.26953125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="23" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="2.6328125" style="21" customWidth="1"/>
-    <col min="6" max="6" width="2.08984375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="1.7265625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="2" style="21" customWidth="1"/>
-    <col min="9" max="11" width="8.7265625" style="21" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="21" hidden="1"/>
+    <col min="1" max="1" width="3.08984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="49.26953125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="23" style="19" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="2.6328125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="2.08984375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="1.7265625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="2" style="19" customWidth="1"/>
+    <col min="9" max="11" width="8.7265625" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="19" hidden="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="2:4" ht="20" x14ac:dyDescent="0.35">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="64" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="57">
+      <c r="C12" s="56"/>
+      <c r="D12" s="42">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="61">
+      <c r="C13" s="58"/>
+      <c r="D13" s="44">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2846,293 +2843,293 @@
         <v>34</v>
       </c>
       <c r="C14" s="60"/>
-      <c r="D14" s="34">
+      <c r="D14" s="24">
         <f>D12*20%</f>
         <v>200</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:4" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="64" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="65">
+      <c r="C17" s="62"/>
+      <c r="D17" s="48">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="62">
+      <c r="C18" s="64"/>
+      <c r="D18" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="63">
+      <c r="C19" s="64"/>
+      <c r="D19" s="46">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="28">
+      <c r="C20" s="50"/>
+      <c r="D20" s="22">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>16755.382799697527</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="29">
+      <c r="C21" s="52"/>
+      <c r="D21" s="23">
         <f>patrimonio*Rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="1:4" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="23">
+      <c r="A24" s="21">
         <v>2</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="26">
         <f>FV($D$19,$A24*12,$D$17*-1)</f>
         <v>5445.5254595290435</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="27">
         <f>C24*Rendimento_carteira</f>
         <v>32.673152757174265</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="23">
+      <c r="A25" s="21">
         <v>5</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="43">
+      <c r="C25" s="29">
         <f>FV($D$19,$A25*12,$D$17*-1)</f>
         <v>16755.382799697527</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="27">
         <f>C25*Rendimento_carteira</f>
         <v>100.53229679818516</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="23">
+      <c r="A26" s="21">
         <v>10</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="29">
         <f>FV($D$19,$A26*12,$D$17*-1)</f>
         <v>48656.842506034438</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="27">
         <f>C26*Rendimento_carteira</f>
         <v>291.94105503620665</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="23">
+      <c r="A27" s="21">
         <v>20</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="29">
         <f>FV($D$19,$A27*12,$D$17*-1)</f>
         <v>225039.68001941612</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="27">
         <f>C27*Rendimento_carteira</f>
         <v>1350.2380801164968</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="23">
+      <c r="A28" s="21">
         <v>30</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="31">
         <f>FV($D$19,$A28*12,$D$17*-1)</f>
         <v>864433.93100094295</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="32">
         <f>C28*Rendimento_carteira</f>
         <v>5186.6035860056581</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="34">
         <f>aporte</f>
         <v>200</v>
       </c>
-      <c r="D33" s="47"/>
+      <c r="D33" s="33"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="39">
         <f>VLOOKUP($C$32&amp;"-"&amp;B36,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="40">
         <f>C36*$C$33</f>
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="39">
         <f>VLOOKUP($C$32&amp;"-"&amp;B37,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="40">
         <f t="shared" ref="D37:D41" si="0">C37*$C$33</f>
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="54">
+      <c r="C38" s="39">
         <f>VLOOKUP($C$32&amp;"-"&amp;B38,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="39">
         <f>VLOOKUP($C$32&amp;"-"&amp;B39,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C40" s="39">
         <f>VLOOKUP($C$32&amp;"-"&amp;B40,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="40">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C41" s="39">
         <f>VLOOKUP($C$32&amp;"-"&amp;B41,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D41" s="55">
+      <c r="D41" s="40">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51">
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37">
         <f>SUM(D36:D41)</f>
         <v>200</v>
       </c>
     </row>
-    <row r="49" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" s="21" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="49" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="50" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="51" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="52" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="54" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="55" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="56" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="57" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="58" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="59" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="60" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="61" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="62" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="66" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="67" s="19" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B20:C20"/>
@@ -3174,16 +3171,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3192,10 +3189,10 @@
         <f>B3&amp;"-"&amp;C3</f>
         <v>CONSERVADOR-PAPEL</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3">
@@ -3210,19 +3207,19 @@
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>CONSERVADOR-TIJOLO</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="12">
         <f>VLOOKUP(G4,$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
@@ -3232,10 +3229,10 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-HÍBRIDOS</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="3">
@@ -3247,10 +3244,10 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-FOFs</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="3">
@@ -3262,10 +3259,10 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-DESENVOLVIMENTO</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3">
@@ -3277,10 +3274,10 @@
         <f t="shared" si="0"/>
         <v>CONSERVADOR-HOTELARIAS</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3">
@@ -3288,17 +3285,17 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="str">
+      <c r="A9" s="13" t="str">
         <f t="shared" si="0"/>
         <v>MODERADO-PAPEL</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>0.32</v>
       </c>
     </row>
@@ -3307,10 +3304,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-TIJOLO</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="3">
@@ -3322,10 +3319,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-HÍBRIDOS</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="3">
@@ -3337,10 +3334,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-FOFs</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3">
@@ -3352,10 +3349,10 @@
         <f t="shared" si="0"/>
         <v>MODERADO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="3">
@@ -3367,13 +3364,13 @@
         <f t="shared" si="0"/>
         <v>MODERADO-HOTELARIAS</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -3382,10 +3379,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-PAPEL</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="3">
@@ -3397,10 +3394,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-TIJOLO</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3">
@@ -3412,10 +3409,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HÍBRIDOS</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="3">
@@ -3427,10 +3424,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-FOFs</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="3">
@@ -3442,10 +3439,10 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-DESENVOLVIMENTO</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="3">
@@ -3457,13 +3454,13 @@
         <f t="shared" si="0"/>
         <v>AGRESSIVO-HOTELARIAS</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>0.1</v>
       </c>
     </row>
